--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="自定义表单" sheetId="1" r:id="rId1"/>
+    <sheet name="表单视图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +463,348 @@
         <charset val="134"/>
       </rPr>
       <t>至少一个明细表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里会调整，用单据实现码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fv_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单视图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单视图由：工具栏、视图两大部分构成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图分类三类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DetailGrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以有多个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Grid - DetailGrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，例如：采购订单模块的主页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单一的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，例如：仓库基础数据模块的主页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Grid - DetailGrid - SubDetailGrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，例如：商品基础数据主页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的表示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图的表示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{headerText, columns:[{dataIndex, text, dataType, width},{...}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{viewProp, subViews[{viewProp, subViews:[...]}, {...}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>subViews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌套子视图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewProp = {mainGrid, detailGrids:[Grid1, Grid2]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_fv_md</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_fv_md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，用于缓存以提高其他模块的应用速度</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +842,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -517,12 +875,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,9 +894,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -896,27 +1262,193 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C23" location="表单视图!A1" display="表单视图"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1">
       <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="24.95" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="24.95" customHeight="1">
+      <c r="C23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="自定义表单" sheetId="1" r:id="rId1"/>
     <sheet name="表单视图" sheetId="2" r:id="rId2"/>
+    <sheet name="表单视图属性" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +806,197 @@
         <charset val="134"/>
       </rPr>
       <t>文件，用于缓存以提高其他模块的应用速度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单视图属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的视图；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Master-Detail</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolBarId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工具栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，工具栏中包含的对象的属性，需要再从表中查询获得。工具栏包含的对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>toolBarId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,7 +1005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +1049,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -866,12 +1066,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -884,7 +1099,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +1111,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,4 +1690,101 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="52.5" customHeight="1">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自定义表单" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,10 +856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>viewType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1:</t>
     </r>
@@ -927,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toolBarId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -998,6 +990,22 @@
       </rPr>
       <t>值</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_bar_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮的标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1696,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1714,7 +1722,7 @@
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>40</v>
@@ -1750,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="52.5" customHeight="1">
@@ -1761,16 +1769,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="24.95" customHeight="1">
       <c r="B9" s="10"/>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="自定义表单" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1006,6 +1006,14 @@
   </si>
   <si>
     <t>按钮的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1702,9 +1710,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1736,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.95" customHeight="1">
@@ -1747,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.95" customHeight="1">
@@ -1758,43 +1766,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="52.5" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.95" customHeight="1">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="52.5" customHeight="1">
       <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="24.95" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1014,14 @@
   </si>
   <si>
     <t>元数据版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮单击处理函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,7 +1726,7 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1806,9 +1814,15 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="24.95" customHeight="1">
       <c r="B11" s="10"/>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,32 @@
   </si>
   <si>
     <t>按钮单击处理函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,7 +1744,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1791,26 +1817,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="52.5" customHeight="1">
+    <row r="8" spans="2:4" ht="24.95" customHeight="1">
       <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="52.5" customHeight="1">
       <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.95" customHeight="1">
@@ -1818,16 +1844,27 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+    <row r="12" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,6 +1048,42 @@
   </si>
   <si>
     <t>help_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_button_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子按钮（菜单）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1862,9 +1898,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,15 +810,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表单视图属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单视图属性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据版本号</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -852,7 +913,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视图的标题</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图的标题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -919,7 +993,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
+    <t>help_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_bar_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -993,27 +1093,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool_bar_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>button_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮的标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元数据版本号</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮的标题</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1021,33 +1114,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮单击处理函数名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用帮助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help_id</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮单击处理函数名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮前图标（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类名）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1091,7 +1203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,6 +1255,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1185,7 +1304,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,19 +1317,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1221,6 +1328,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,14 +1896,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="9"/>
+    <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -1799,113 +1915,124 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="52.5" customHeight="1">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="10" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="52.5" customHeight="1">
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B11" s="10">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/自定义表单概要设计.xlsx
+++ b/doc/01 概要设计/自定义表单概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>自定义表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1167,6 +1167,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>query_panel_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1194,7 +1198,371 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>。所有的子按钮的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会是本属性的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。查询栏里面的控件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会是本属性的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为表单视图本身就可以嵌套的，而且其中的子控件也是可以嵌套的，所以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_fv_md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种方式来实现树状结构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_cmp_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询栏中控件的标题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_cmp_xtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询栏中控件的类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>textfield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、其他的自定义字段的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>xtype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值，例如供应商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>psi_supplierfield</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_panel_col_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询栏列数，也就是每行放几个控件。例如：本属性的值为4，一共用7个查询控件，则查询栏的高度会扩张到2行，第一行有4个控件，第二行有3个控件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_cmp_default_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询控件的默认值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">$date - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天的日期；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">$user - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前用户
+本属性会不断扩充各种宏定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一组子控件同属于一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当子控件需要排序的时候，就使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_fv_md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>show_order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；有些属性就一个这个时候忽略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>show_order</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1271,7 +1639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1294,6 +1662,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1304,7 +1681,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,6 +1714,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1896,7 +2288,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1904,7 +2296,7 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1915,127 +2307,204 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.95" customHeight="1">
       <c r="B7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.95" customHeight="1">
       <c r="B8" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="52.5" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24.95" customHeight="1">
       <c r="B9" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.95" customHeight="1">
       <c r="B10" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.95" customHeight="1">
       <c r="B11" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="52.5" customHeight="1">
       <c r="B12" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
       <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B14" s="6">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="42" customHeight="1">
+      <c r="B17" s="6">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B18" s="6">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B19" s="6">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="34.5" customHeight="1">
+      <c r="B20" s="6">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="57.75" customHeight="1">
+      <c r="B21" s="6">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
